--- a/finance_system/transactions_example.xlsx
+++ b/finance_system/transactions_example.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:D4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -434,20 +434,10 @@
       </c>
       <c r="C1" t="inlineStr">
         <is>
-          <t>Тип</t>
+          <t>Категория</t>
         </is>
       </c>
       <c r="D1" t="inlineStr">
-        <is>
-          <t>Описание</t>
-        </is>
-      </c>
-      <c r="E1" t="inlineStr">
-        <is>
-          <t>Категория</t>
-        </is>
-      </c>
-      <c r="F1" t="inlineStr">
         <is>
           <t>Магазин/Продавец</t>
         </is>
@@ -464,20 +454,10 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>expense</t>
+          <t>Еда</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
-        <is>
-          <t>Продукты</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>Еда</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
         <is>
           <t>Пятёрочка</t>
         </is>
@@ -494,20 +474,10 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>expense</t>
+          <t>Кафе и рестораны</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
-        <is>
-          <t>Обед</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>Кафе и рестораны</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
         <is>
           <t>Шоколадница</t>
         </is>
@@ -522,18 +492,8 @@
       <c r="B4" t="n">
         <v>2500</v>
       </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>income</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>Зарплата</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr"/>
-      <c r="F4" t="inlineStr"/>
+      <c r="C4" t="inlineStr"/>
+      <c r="D4" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
